--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1599708.088022369</v>
+        <v>1597820.506505969</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>101.6060685942791</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -871,10 +871,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>9.275596830496628</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>230.2634979541061</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>337.1647577214389</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>1.925119512544002</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1057,25 +1057,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>14.46389722690827</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>100.6689360158811</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>34.50046002839228</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>4.553842565068688</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>25.31590541686241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274097</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1464,10 +1464,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014454</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,19 +1531,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>79.80525340903503</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,22 +1576,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>24.29718497126532</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274097</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1701,10 +1701,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014454</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>102.482370732327</v>
+        <v>166.1848299532869</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896931</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2008,16 +2008,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>46.90175579878681</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2059,16 +2059,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>39.11561436815875</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>224.8952567231516</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>122.5264189150285</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>139.1537278750036</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>33.3514698018591</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2716,13 +2716,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>46.18719652447302</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2770,16 +2770,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>169.7438101404428</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700706</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965511</v>
+        <v>93.4122163896553</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801193</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.217791394374</v>
+        <v>76.90718818968307</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348203</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897889</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.717553355046</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.344304429832</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952707</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>196.449257469892</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604799</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T33" t="n">
         <v>192.9654699154601</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329079</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789655</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463133</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415213</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1680.577747274852</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1311.615230334441</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>953.3495317276902</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>567.5612791294459</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>156.5753743398383</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2070.717079250664</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2070.717079250664</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1680.577747274852</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4407,22 +4407,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810045</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="U4" t="n">
-        <v>99.59950625323012</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="V4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2476.569858826099</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2695.204525854037</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2476.569858826099</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2476.569858826099</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2476.569858826099</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>2476.569858826099</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X5" t="n">
-        <v>2476.569858826099</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y5" t="n">
-        <v>2476.569858826099</v>
+        <v>1563.476704221264</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4662,25 +4662,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>578.0123447940985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>430.0992512117053</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>283.209303713795</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>114.2095034521274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4756,19 +4756,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1293.521057189058</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2662.300141494594</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2662.300141494594</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2662.300141494594</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2662.300141494594</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2331.237254151024</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1978.468598880909</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X8" t="n">
-        <v>1978.468598880909</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>723.5291432316174</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>509.2407200497801</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064343</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.55736257324</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,49 +5024,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805472</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823853</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514138</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795211</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515101</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619131</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5094,52 +5094,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E12" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358149</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I12" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126479</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571601</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636235</v>
       </c>
       <c r="M12" t="n">
-        <v>841.863114014129</v>
+        <v>1321.461721072717</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.676219880508</v>
+        <v>1651.324348736749</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2320.788110039407</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821616</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278839</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5154,7 +5154,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W12" t="n">
         <v>1571.258395043133</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>773.1661474848152</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>773.1661474848152</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>623.0495080724794</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>475.1364144900863</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>328.2464669921759</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028587</v>
@@ -5197,52 +5197,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799356</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471178</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473452</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262958</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765159</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>531.3977182706291</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150549</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X13" t="n">
-        <v>954.8146123150549</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y13" t="n">
-        <v>954.8146123150549</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5267,34 +5267,34 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805472</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823865</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514153</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795212</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515102</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.627437207831</v>
@@ -5303,25 +5303,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5331,52 +5331,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358149</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126479</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147073</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211708</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1321.461721072717</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736749</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039407</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821616</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278839</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5391,7 +5391,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W15" t="n">
         <v>1571.258395043133</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>657.1994242851241</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>657.1994242851241</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>507.0827848727884</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>359.1696912903952</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903952</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903952</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799356</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471179</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119725</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035277</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247833</v>
       </c>
       <c r="U16" t="n">
-        <v>1395.398724363632</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="V16" t="n">
-        <v>1395.398724363632</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W16" t="n">
-        <v>1105.981554326672</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X16" t="n">
-        <v>877.9920034286542</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y16" t="n">
-        <v>657.1994242851241</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636254</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1689.561836756087</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2019.42446442012</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2298.964529638817</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2503.987010421027</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>441.9005583181184</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C19" t="n">
-        <v>441.9005583181184</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D19" t="n">
-        <v>441.9005583181184</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E19" t="n">
-        <v>394.525047410253</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241958</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>986.002216560966</v>
+        <v>874.9271131227927</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550791</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>441.9005583181184</v>
+        <v>545.9992215018334</v>
       </c>
       <c r="X19" t="n">
-        <v>441.9005583181184</v>
+        <v>318.009670603816</v>
       </c>
       <c r="Y19" t="n">
-        <v>441.9005583181184</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5750,52 +5750,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>462.7283310300495</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>709.4934589365137</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M21" t="n">
-        <v>1016.813592216475</v>
+        <v>1236.836466556557</v>
       </c>
       <c r="N21" t="n">
-        <v>1346.676219880508</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183167</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5908,16 +5908,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>1271.749344574921</v>
+        <v>786.0822064765193</v>
       </c>
       <c r="V22" t="n">
-        <v>1017.064856369034</v>
+        <v>786.0822064765193</v>
       </c>
       <c r="W22" t="n">
-        <v>727.6476863320731</v>
+        <v>662.3181469663895</v>
       </c>
       <c r="X22" t="n">
-        <v>499.6581354340557</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>434.3285960683721</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,49 +5987,49 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6054,34 +6054,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1333.825180851559</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P24" t="n">
         <v>2317.834075963124</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>237.776412546148</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>237.776412546148</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>237.776412546148</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>237.776412546148</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.599783924196</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688075</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471197</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247864</v>
       </c>
       <c r="U25" t="n">
-        <v>1009.867621687013</v>
+        <v>675.0071030383446</v>
       </c>
       <c r="V25" t="n">
-        <v>755.183133481126</v>
+        <v>420.3226148324577</v>
       </c>
       <c r="W25" t="n">
-        <v>465.7659634441653</v>
+        <v>130.9054447954971</v>
       </c>
       <c r="X25" t="n">
-        <v>237.776412546148</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>237.776412546148</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6224,49 +6224,49 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,34 +6291,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>901.6749225845923</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528587</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1818.397748747284</v>
       </c>
       <c r="P27" t="n">
         <v>2317.834075963124</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>441.9005583181188</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>441.9005583181188</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>291.783918905783</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>143.8708253233899</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6382,16 +6382,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609662</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550793</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="W28" t="n">
-        <v>441.9005583181188</v>
+        <v>496.6650364395585</v>
       </c>
       <c r="X28" t="n">
-        <v>441.9005583181188</v>
+        <v>268.6754855415412</v>
       </c>
       <c r="Y28" t="n">
-        <v>441.9005583181188</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6440,49 +6440,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,37 +6528,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211725</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011343</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1966.019627967827</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2486.320249703574</v>
       </c>
       <c r="Q30" t="n">
         <v>2612.943493278838</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.1010933248424</v>
+        <v>494.8466681110223</v>
       </c>
       <c r="C31" t="n">
-        <v>581.9257756783064</v>
+        <v>381.6713504644862</v>
       </c>
       <c r="D31" t="n">
-        <v>487.5700015473416</v>
+        <v>287.3155763335212</v>
       </c>
       <c r="E31" t="n">
-        <v>395.4177732463194</v>
+        <v>287.3155763335212</v>
       </c>
       <c r="F31" t="n">
-        <v>304.28869102978</v>
+        <v>209.6315478590945</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309716</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933504</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667514</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962058</v>
+        <v>997.6688721962055</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
@@ -6637,34 +6637,34 @@
         <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252999</v>
+        <v>1791.966918252998</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323876</v>
+        <v>1623.942368323874</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818805</v>
+        <v>1390.574594818803</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894289</v>
+        <v>1191.650971894287</v>
       </c>
       <c r="W31" t="n">
-        <v>993.2173784903575</v>
+        <v>957.9946671386972</v>
       </c>
       <c r="X31" t="n">
-        <v>820.9886928737111</v>
+        <v>785.7659815220507</v>
       </c>
       <c r="Y31" t="n">
-        <v>820.9886928737111</v>
+        <v>620.7342676598912</v>
       </c>
     </row>
     <row r="32">
@@ -6686,49 +6686,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823768</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514066</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6765,37 +6765,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>143.757825084109</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>292.8275092861689</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>539.5926371926332</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>846.912770472595</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
         <v>2612.943493278838</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108339</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222968</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506733</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083212</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850452</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210314</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,19 +6856,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O34" t="n">
         <v>1688.18649035013</v>
@@ -6880,28 +6880,28 @@
         <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859418</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045217</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010325</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6932,13 +6932,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6950,37 +6950,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>816.7950850315608</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504506</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103123</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982967</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7266,13 +7266,13 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108338</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229679</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506732</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982976</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
@@ -7351,31 +7351,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010324</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7388,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7412,10 +7412,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,25 +7488,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108325</v>
       </c>
       <c r="C43" t="n">
         <v>559.3441472229666</v>
@@ -7555,25 +7555,25 @@
         <v>398.9545963083199</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649688</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2292.946699347402</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2497.969180129611</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
         <v>478.0475988506726</v>
@@ -7795,22 +7795,22 @@
         <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7831,7 +7831,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>93.88676507993171</v>
       </c>
       <c r="N12" t="n">
-        <v>176.717654749845</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720821</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9006,28 +9006,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>358.3520020925103</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,7 +9249,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>22.04402060665443</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504483</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>176.7176547498446</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>8.406710013101019</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928303</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9717,22 +9717,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>171.2966883299248</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9884,7 +9884,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119818</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>297.3877236703336</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10130,7 +10130,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659902</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,13 +10203,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>39.88923345256623</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720718</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>5.10066308935906</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,16 +10437,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10595,7 +10595,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>285.1031356539327</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10914,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,13 +11151,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>176.7176547498452</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>28.12263706262978</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>86.68831505434255</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>262.2258133653257</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>183.7549816662503</v>
+        <v>120.0525224452904</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23896,16 +23896,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>99.53220684778239</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229313</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -23947,16 +23947,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>213.0220289556692</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,25 +24175,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>61.3420956754257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>163.9965794215625</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>6.267320147927623</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>192.358185587178</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24604,13 +24604,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>99.23385149845822</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24649,7 +24649,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,16 +24658,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>48.84084321165196</v>
       </c>
     </row>
     <row r="29">
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801211</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>13.31060320469111</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897907</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571474</v>
+        <v>55.2159888357149</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523555</v>
+        <v>54.7610957752357</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>34.87048423814177</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25084,13 +25084,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>-7.305268778891107e-14</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>-9.399148254162333e-13</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>920753.6512930254</v>
+        <v>920753.6512930255</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>920753.6512930256</v>
+        <v>920753.6512930255</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>920753.6512930254</v>
+        <v>920753.6512930256</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>920753.6512930254</v>
+        <v>920753.6512930255</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>957077.7297904164</v>
+        <v>957077.7297904163</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="E2" t="n">
+        <v>469234.8716852507</v>
+      </c>
+      <c r="F2" t="n">
+        <v>469234.8716852506</v>
+      </c>
+      <c r="G2" t="n">
+        <v>469234.87168525</v>
+      </c>
+      <c r="H2" t="n">
         <v>469234.8716852503</v>
-      </c>
-      <c r="F2" t="n">
-        <v>469234.8716852503</v>
-      </c>
-      <c r="G2" t="n">
-        <v>469234.8716852503</v>
-      </c>
-      <c r="H2" t="n">
-        <v>469234.8716852502</v>
       </c>
       <c r="I2" t="n">
         <v>469234.8716852503</v>
       </c>
       <c r="J2" t="n">
-        <v>469234.8716852501</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="K2" t="n">
         <v>488186.5648143234</v>
       </c>
       <c r="L2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.06191857</v>
       </c>
       <c r="M2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="N2" t="n">
         <v>492625.06191857</v>
       </c>
       <c r="O2" t="n">
+        <v>492625.0619185702</v>
+      </c>
+      <c r="P2" t="n">
         <v>492625.0619185701</v>
-      </c>
-      <c r="P2" t="n">
-        <v>492625.0619185703</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,31 +26372,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768951</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.414240614394657e-09</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.171927646024903e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284579</v>
+        <v>44162.60530284565</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086675</v>
+        <v>10342.90680086687</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.6053028458</v>
+        <v>44162.60530284556</v>
       </c>
     </row>
     <row r="4">
@@ -26424,37 +26424,37 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687066</v>
+        <v>22174.60758687078</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687064</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687069</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687069</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687069</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.2301010673</v>
+        <v>40339.23010106722</v>
       </c>
       <c r="L4" t="n">
+        <v>44593.39482819117</v>
+      </c>
+      <c r="M4" t="n">
+        <v>44593.39482819116</v>
+      </c>
+      <c r="N4" t="n">
         <v>44593.39482819119</v>
       </c>
-      <c r="M4" t="n">
-        <v>44593.39482819121</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>44593.39482819118</v>
-      </c>
-      <c r="O4" t="n">
-        <v>44593.3948281912</v>
       </c>
       <c r="P4" t="n">
         <v>44593.39482819119</v>
@@ -26473,16 +26473,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26494,16 +26494,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26522,37 +26522,37 @@
         <v>-345834.7631459085</v>
       </c>
       <c r="C6" t="n">
-        <v>244133.1160686359</v>
+        <v>244133.1160686361</v>
       </c>
       <c r="D6" t="n">
         <v>244133.116068636</v>
       </c>
       <c r="E6" t="n">
-        <v>-170087.0983272332</v>
+        <v>-170184.5574532039</v>
       </c>
       <c r="F6" t="n">
-        <v>355072.9381496629</v>
+        <v>354975.479023691</v>
       </c>
       <c r="G6" t="n">
-        <v>355072.9381496629</v>
+        <v>354975.4790236892</v>
       </c>
       <c r="H6" t="n">
-        <v>355072.9381496628</v>
+        <v>354975.4790236909</v>
       </c>
       <c r="I6" t="n">
-        <v>355072.9381496629</v>
+        <v>354975.4790236907</v>
       </c>
       <c r="J6" t="n">
-        <v>178649.7189570698</v>
+        <v>178552.2598310979</v>
       </c>
       <c r="K6" t="n">
-        <v>307056.5208801875</v>
+        <v>307038.0271422534</v>
       </c>
       <c r="L6" t="n">
         <v>339973.6544694866</v>
       </c>
       <c r="M6" t="n">
-        <v>215515.5460365163</v>
+        <v>215515.5460365166</v>
       </c>
       <c r="N6" t="n">
         <v>350316.5612703534</v>
@@ -26561,7 +26561,7 @@
         <v>350316.5612703536</v>
       </c>
       <c r="P6" t="n">
-        <v>306153.9559675078</v>
+        <v>306153.9559675079</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964065</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,28 +26744,28 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054540988</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054540988</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541003</v>
@@ -26777,7 +26777,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26802,7 +26802,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253573</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.714909557531129e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108344</v>
+        <v>12.92863350108359</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370122</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.714909557531129e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>312.1781014265159</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,10 +27591,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.0062774114811</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>21.8741453697219</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>28.10813404956866</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>172.4905932964275</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,10 +27673,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>141.7069916148869</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27828,13 +27828,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>254.0141056048019</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>19.97794254641943</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28056,13 +28056,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>142.1113494150892</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>193.2687479352324</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443611</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444939</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304431</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565509</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927176</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540877</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946984</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.490283364749</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.7861055513541</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386723</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127054</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724838</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813454</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855519</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677459</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361477</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263747</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.105041346907</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337658</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892234</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351801</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443611</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444939</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304431</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565509</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927176</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540877</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946984</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.490283364749</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.7861055513541</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386723</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127054</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724838</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813454</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855519</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677459</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361477</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263747</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.105041346907</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337658</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892234</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351801</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,43 +32309,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
         <v>34.18755300444946</v>
@@ -32470,40 +32470,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,7 +32546,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
@@ -32555,19 +32555,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710957</v>
@@ -32576,13 +32576,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,43 +32783,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,43 +33020,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,43 +33257,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,43 +33494,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35030,10 +35030,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109063</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221107</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081108</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951463</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109115</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502042</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349773</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>404.3111421303972</v>
       </c>
       <c r="N12" t="n">
-        <v>509.9122281478579</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178369</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315241</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507373</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686845</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556535</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299103</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118005</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187453</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415158</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109063</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221107</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081108</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951463</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109115</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502042</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349773</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879387</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>668.7763791429758</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178369</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315241</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507373</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686845</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556551</v>
+        <v>12.50777016556535</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299103</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118005</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187453</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>110.0570533917286</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556551</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109053</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>327.2930933377839</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>318.8310870635675</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221098</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>504.4912617279379</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081097</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>504.4811386018584</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502023</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>127.9022662376404</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412277</v>
+        <v>67.71102679412263</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584678</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084858</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075298</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341609</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491601</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.586857240358</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.428956600432</v>
+        <v>94.42895660043186</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415061</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>47.0108420442658</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502436</v>
@@ -37245,7 +37245,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>534.360840609957</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
@@ -37397,16 +37397,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37634,16 +37634,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>462.3874039146953</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37871,13 +37871,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>264.7306875349194</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>116.1356698477039</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
